--- a/doc/project-vision/RACI-matrix.xlsx
+++ b/doc/project-vision/RACI-matrix.xlsx
@@ -38,18 +38,18 @@
     <t xml:space="preserve">Date:</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3.2023</t>
+    <t xml:space="preserve">26.4.2023</t>
   </si>
   <si>
     <t xml:space="preserve">Person</t>
   </si>
   <si>
+    <t xml:space="preserve">Lukáš Častven</t>
+  </si>
+  <si>
     <t xml:space="preserve">Juraj Rabatin</t>
   </si>
   <si>
-    <t xml:space="preserve">Lukáš Častven</t>
-  </si>
-  <si>
     <t xml:space="preserve">Peter Bartoš</t>
   </si>
   <si>
@@ -65,58 +65,58 @@
     <t xml:space="preserve">Role</t>
   </si>
   <si>
+    <t xml:space="preserve">Lead / Architect</t>
+  </si>
+  <si>
     <t xml:space="preserve">Developer</t>
   </si>
   <si>
-    <t xml:space="preserve">Lead / Architect</t>
-  </si>
-  <si>
     <t xml:space="preserve">Developer / Tester</t>
   </si>
   <si>
     <t xml:space="preserve">Architecture Design</t>
   </si>
   <si>
+    <t xml:space="preserve">A/R</t>
+  </si>
+  <si>
     <t xml:space="preserve">I</t>
   </si>
   <si>
-    <t xml:space="preserve">A/R</t>
+    <t xml:space="preserve">UI design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User auth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Librarian flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin flow</t>
   </si>
   <si>
     <t xml:space="preserve">Architecture Adherence</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrastructure Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User auth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Member flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Librarian flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI design</t>
   </si>
   <si>
     <t xml:space="preserve">Documentation</t>
@@ -820,7 +820,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -855,6 +855,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1297,7 +1301,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1144440</xdr:colOff>
+      <xdr:colOff>1143720</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1797840</xdr:rowOff>
     </xdr:to>
@@ -1309,7 +1313,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2160" y="1908720"/>
-          <a:ext cx="1142280" cy="479520"/>
+          <a:ext cx="1141560" cy="479520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1408,10 +1412,10 @@
     <tabColor rgb="FF000000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="R28" activeCellId="0" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1461,6 +1465,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
@@ -1470,6 +1475,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
@@ -1493,6 +1499,7 @@
       <c r="G6" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -1505,290 +1512,293 @@
         <v>14</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="8"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="E12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="C16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="C17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="F18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="G18" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
+      <c r="D19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1801,17 +1811,18 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
@@ -1844,633 +1855,633 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="0.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="14" width="9.18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="15" width="9.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="0.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="15" width="9.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="16" width="9.18"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="19" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-    </row>
-    <row r="3" s="28" customFormat="true" ht="160.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23" t="s">
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+    </row>
+    <row r="3" s="29" customFormat="true" ht="160.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="36"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="37"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="44"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="45"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="44"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="45"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="44"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="45"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="50"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="51"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="44"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="45"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="44"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="45"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="44"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="45"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="50"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="51"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="44"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="45"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="44"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="45"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="44"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="45"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="50"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="51"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="44"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="45"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="44"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="45"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="44"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="45"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="50"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="51"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="44"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="45"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="44"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="45"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="44"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="45"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="50"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="51"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="44"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="45"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="44"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="45"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="58"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="59"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="62" t="s">
+      <c r="B31" s="61"/>
+      <c r="C31" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="61"/>
+      <c r="D31" s="62"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="62" t="s">
+      <c r="B32" s="61"/>
+      <c r="C32" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="61"/>
+      <c r="D32" s="62"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="62" t="s">
+      <c r="B33" s="61"/>
+      <c r="C33" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="61"/>
+      <c r="D33" s="62"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="62" t="s">
+      <c r="B34" s="61"/>
+      <c r="C34" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="61"/>
+      <c r="D34" s="62"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="64" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="60"/>
+      <c r="A37" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="3">
